--- a/Dict_Index.xlsx
+++ b/Dict_Index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="108">
   <si>
     <t>Description</t>
   </si>
@@ -331,6 +331,15 @@
   </si>
   <si>
     <t>Asset Class</t>
+  </si>
+  <si>
+    <t>Date Filter</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Out</t>
   </si>
 </sst>
 </file>
@@ -404,7 +413,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -692,11 +701,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
@@ -721,6 +730,9 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -738,7 +750,9 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -756,7 +770,9 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -774,7 +790,9 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -792,7 +810,9 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -810,7 +830,9 @@
       <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -828,7 +850,9 @@
       <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -846,7 +870,9 @@
       <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -864,7 +890,9 @@
       <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -882,7 +910,9 @@
       <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -900,7 +930,9 @@
       <c r="E11" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -918,7 +950,9 @@
       <c r="E12" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -936,7 +970,9 @@
       <c r="E13" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -954,7 +990,9 @@
       <c r="E14" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -972,7 +1010,9 @@
       <c r="E15" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -990,7 +1030,9 @@
       <c r="E16" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1008,7 +1050,9 @@
       <c r="E17" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1026,7 +1070,9 @@
       <c r="E18" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1044,7 +1090,9 @@
       <c r="E19" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1062,7 +1110,9 @@
       <c r="E20" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1080,7 +1130,9 @@
       <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1098,7 +1150,9 @@
       <c r="E22" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1116,7 +1170,9 @@
       <c r="E23" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1134,7 +1190,9 @@
       <c r="E24" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1152,7 +1210,9 @@
       <c r="E25" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1170,7 +1230,9 @@
       <c r="E26" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1188,7 +1250,9 @@
       <c r="E27" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1206,7 +1270,9 @@
       <c r="E28" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1224,7 +1290,9 @@
       <c r="E29" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -1242,7 +1310,9 @@
       <c r="E30" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1260,7 +1330,9 @@
       <c r="E31" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1278,7 +1350,9 @@
       <c r="E32" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1296,7 +1370,9 @@
       <c r="E33" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1314,7 +1390,9 @@
       <c r="E34" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="5"/>
+      <c r="F34" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1332,7 +1410,9 @@
       <c r="E35" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -1350,7 +1430,9 @@
       <c r="E36" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1368,7 +1450,9 @@
       <c r="E37" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -1386,7 +1470,9 @@
       <c r="E38" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="5"/>
+      <c r="F38" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -1404,7 +1490,9 @@
       <c r="E39" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -1422,7 +1510,9 @@
       <c r="E40" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -1440,7 +1530,9 @@
       <c r="E41" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -1458,7 +1550,9 @@
       <c r="E42" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="5"/>
+      <c r="F42" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1476,7 +1570,9 @@
       <c r="E43" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1494,7 +1590,9 @@
       <c r="E44" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="5"/>
+      <c r="F44" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1512,7 +1610,9 @@
       <c r="E45" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:E45">
@@ -1529,7 +1629,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1541,7 +1641,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
